--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="282">
   <si>
     <t>League</t>
   </si>
@@ -860,141 +860,6 @@
   </si>
   <si>
     <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>33134199</t>
-  </si>
-  <si>
-    <t>33134178</t>
-  </si>
-  <si>
-    <t>33134182</t>
-  </si>
-  <si>
-    <t>33134161</t>
-  </si>
-  <si>
-    <t>33134222</t>
-  </si>
-  <si>
-    <t>33134191</t>
-  </si>
-  <si>
-    <t>33134202</t>
-  </si>
-  <si>
-    <t>33134168</t>
-  </si>
-  <si>
-    <t>33134174</t>
-  </si>
-  <si>
-    <t>1.226582868</t>
-  </si>
-  <si>
-    <t>1.226582598</t>
-  </si>
-  <si>
-    <t>1.226582688</t>
-  </si>
-  <si>
-    <t>1.226582328</t>
-  </si>
-  <si>
-    <t>1.226583048</t>
-  </si>
-  <si>
-    <t>1.226582778</t>
-  </si>
-  <si>
-    <t>1.226582958</t>
-  </si>
-  <si>
-    <t>1.226582418</t>
-  </si>
-  <si>
-    <t>1.226582508</t>
-  </si>
-  <si>
-    <t>1.226582871</t>
-  </si>
-  <si>
-    <t>1.226582601</t>
-  </si>
-  <si>
-    <t>1.226582691</t>
-  </si>
-  <si>
-    <t>1.226582331</t>
-  </si>
-  <si>
-    <t>1.226583051</t>
-  </si>
-  <si>
-    <t>1.226582781</t>
-  </si>
-  <si>
-    <t>1.226582961</t>
-  </si>
-  <si>
-    <t>1.226582421</t>
-  </si>
-  <si>
-    <t>1.226582511</t>
-  </si>
-  <si>
-    <t>1.226582915</t>
-  </si>
-  <si>
-    <t>1.226582645</t>
-  </si>
-  <si>
-    <t>1.226582735</t>
-  </si>
-  <si>
-    <t>1.226582375</t>
-  </si>
-  <si>
-    <t>1.226583095</t>
-  </si>
-  <si>
-    <t>1.226582825</t>
-  </si>
-  <si>
-    <t>1.226583005</t>
-  </si>
-  <si>
-    <t>1.226582465</t>
-  </si>
-  <si>
-    <t>1.226582555</t>
-  </si>
-  <si>
-    <t>1.226582916</t>
-  </si>
-  <si>
-    <t>1.226582646</t>
-  </si>
-  <si>
-    <t>1.226582736</t>
-  </si>
-  <si>
-    <t>1.226582376</t>
-  </si>
-  <si>
-    <t>1.226583096</t>
-  </si>
-  <si>
-    <t>1.226582826</t>
-  </si>
-  <si>
-    <t>1.226583006</t>
-  </si>
-  <si>
-    <t>1.226582466</t>
-  </si>
-  <si>
-    <t>1.226582556</t>
   </si>
 </sst>
 </file>
@@ -9607,8 +9472,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>282</v>
+      <c r="BF42">
+        <v>33134199</v>
       </c>
       <c r="BG42">
         <v>522056</v>
@@ -9619,17 +9484,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>291</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>300</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>309</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>318</v>
+      <c r="BJ42">
+        <v>1.226582868</v>
+      </c>
+      <c r="BK42">
+        <v>1.226582871</v>
+      </c>
+      <c r="BL42">
+        <v>1.226582915</v>
+      </c>
+      <c r="BM42">
+        <v>1.226582916</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9804,8 +9669,8 @@
       <c r="BE43">
         <v>1000</v>
       </c>
-      <c r="BF43" t="s">
-        <v>283</v>
+      <c r="BF43">
+        <v>33134178</v>
       </c>
       <c r="BG43">
         <v>6234663</v>
@@ -9816,17 +9681,17 @@
       <c r="BI43">
         <v>58805</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>292</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>310</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>319</v>
+      <c r="BJ43">
+        <v>1.226582598</v>
+      </c>
+      <c r="BK43">
+        <v>1.226582601</v>
+      </c>
+      <c r="BL43">
+        <v>1.226582645</v>
+      </c>
+      <c r="BM43">
+        <v>1.226582646</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -10001,8 +9866,8 @@
       <c r="BE44">
         <v>1000</v>
       </c>
-      <c r="BF44" t="s">
-        <v>284</v>
+      <c r="BF44">
+        <v>33134182</v>
       </c>
       <c r="BG44">
         <v>36082600</v>
@@ -10013,17 +9878,17 @@
       <c r="BI44">
         <v>58805</v>
       </c>
-      <c r="BJ44" t="s">
-        <v>293</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>302</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>320</v>
+      <c r="BJ44">
+        <v>1.226582688</v>
+      </c>
+      <c r="BK44">
+        <v>1.226582691</v>
+      </c>
+      <c r="BL44">
+        <v>1.226582735</v>
+      </c>
+      <c r="BM44">
+        <v>1.226582736</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10198,8 +10063,8 @@
       <c r="BE45">
         <v>1000</v>
       </c>
-      <c r="BF45" t="s">
-        <v>285</v>
+      <c r="BF45">
+        <v>33134161</v>
       </c>
       <c r="BG45">
         <v>10769954</v>
@@ -10210,17 +10075,17 @@
       <c r="BI45">
         <v>58805</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>294</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>303</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>312</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>321</v>
+      <c r="BJ45">
+        <v>1.226582328</v>
+      </c>
+      <c r="BK45">
+        <v>1.226582331</v>
+      </c>
+      <c r="BL45">
+        <v>1.226582375</v>
+      </c>
+      <c r="BM45">
+        <v>1.226582376</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10395,8 +10260,8 @@
       <c r="BE46">
         <v>1000</v>
       </c>
-      <c r="BF46" t="s">
-        <v>286</v>
+      <c r="BF46">
+        <v>33134222</v>
       </c>
       <c r="BG46">
         <v>11935858</v>
@@ -10407,17 +10272,17 @@
       <c r="BI46">
         <v>58805</v>
       </c>
-      <c r="BJ46" t="s">
-        <v>295</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>313</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>322</v>
+      <c r="BJ46">
+        <v>1.226583048</v>
+      </c>
+      <c r="BK46">
+        <v>1.226583051</v>
+      </c>
+      <c r="BL46">
+        <v>1.226583095</v>
+      </c>
+      <c r="BM46">
+        <v>1.226583096</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10592,8 +10457,8 @@
       <c r="BE47">
         <v>1000</v>
       </c>
-      <c r="BF47" t="s">
-        <v>287</v>
+      <c r="BF47">
+        <v>33134191</v>
       </c>
       <c r="BG47">
         <v>6215125</v>
@@ -10604,17 +10469,17 @@
       <c r="BI47">
         <v>58805</v>
       </c>
-      <c r="BJ47" t="s">
-        <v>296</v>
-      </c>
-      <c r="BK47" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>323</v>
+      <c r="BJ47">
+        <v>1.226582778</v>
+      </c>
+      <c r="BK47">
+        <v>1.226582781</v>
+      </c>
+      <c r="BL47">
+        <v>1.226582825</v>
+      </c>
+      <c r="BM47">
+        <v>1.226582826</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10789,8 +10654,8 @@
       <c r="BE48">
         <v>1000</v>
       </c>
-      <c r="BF48" t="s">
-        <v>288</v>
+      <c r="BF48">
+        <v>33134202</v>
       </c>
       <c r="BG48">
         <v>64905744</v>
@@ -10801,17 +10666,17 @@
       <c r="BI48">
         <v>58805</v>
       </c>
-      <c r="BJ48" t="s">
-        <v>297</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>324</v>
+      <c r="BJ48">
+        <v>1.226582958</v>
+      </c>
+      <c r="BK48">
+        <v>1.226582961</v>
+      </c>
+      <c r="BL48">
+        <v>1.226583005</v>
+      </c>
+      <c r="BM48">
+        <v>1.226583006</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -10986,8 +10851,8 @@
       <c r="BE49">
         <v>1000</v>
       </c>
-      <c r="BF49" t="s">
-        <v>289</v>
+      <c r="BF49">
+        <v>33134168</v>
       </c>
       <c r="BG49">
         <v>51710620</v>
@@ -10998,17 +10863,17 @@
       <c r="BI49">
         <v>58805</v>
       </c>
-      <c r="BJ49" t="s">
-        <v>298</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>325</v>
+      <c r="BJ49">
+        <v>1.226582418</v>
+      </c>
+      <c r="BK49">
+        <v>1.226582421</v>
+      </c>
+      <c r="BL49">
+        <v>1.226582465</v>
+      </c>
+      <c r="BM49">
+        <v>1.226582466</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -11183,8 +11048,8 @@
       <c r="BE50">
         <v>1000</v>
       </c>
-      <c r="BF50" t="s">
-        <v>290</v>
+      <c r="BF50">
+        <v>33134174</v>
       </c>
       <c r="BG50">
         <v>11449888</v>
@@ -11195,17 +11060,17 @@
       <c r="BI50">
         <v>58805</v>
       </c>
-      <c r="BJ50" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>308</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>326</v>
+      <c r="BJ50">
+        <v>1.226582508</v>
+      </c>
+      <c r="BK50">
+        <v>1.226582511</v>
+      </c>
+      <c r="BL50">
+        <v>1.226582555</v>
+      </c>
+      <c r="BM50">
+        <v>1.226582556</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -15559,139 +15424,139 @@
         <v>266</v>
       </c>
       <c r="F73">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="G73">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="H73">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="I73">
-        <v>860</v>
+        <v>6</v>
       </c>
       <c r="J73">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K73">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L73">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="M73">
-        <v>11</v>
+        <v>1.53</v>
       </c>
       <c r="N73">
-        <v>1.1</v>
+        <v>2.86</v>
       </c>
       <c r="O73">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="P73">
-        <v>1.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q73">
+        <v>2.7</v>
+      </c>
+      <c r="R73">
+        <v>1.59</v>
+      </c>
+      <c r="S73">
+        <v>1.76</v>
+      </c>
+      <c r="T73">
+        <v>6.6</v>
+      </c>
+      <c r="U73">
+        <v>980</v>
+      </c>
+      <c r="V73">
         <v>10</v>
       </c>
-      <c r="R73">
-        <v>1.15</v>
-      </c>
-      <c r="S73">
-        <v>9.4</v>
-      </c>
-      <c r="T73">
-        <v>1.48</v>
-      </c>
-      <c r="U73">
-        <v>980</v>
-      </c>
-      <c r="V73">
-        <v>1.1</v>
-      </c>
       <c r="W73">
         <v>980</v>
       </c>
       <c r="X73">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z73">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="AA73">
         <v>1000</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="AC73">
         <v>980</v>
       </c>
       <c r="AD73">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE73">
         <v>980</v>
       </c>
       <c r="AF73">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="AG73">
         <v>980</v>
       </c>
       <c r="AH73">
-        <v>1.1</v>
+        <v>2.62</v>
       </c>
       <c r="AI73">
         <v>1000</v>
       </c>
       <c r="AJ73">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AK73">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL73">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="AM73">
         <v>980</v>
       </c>
       <c r="AN73">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="AO73">
         <v>980</v>
       </c>
       <c r="AP73">
-        <v>1.1</v>
+        <v>2.62</v>
       </c>
       <c r="AQ73">
         <v>1000</v>
       </c>
       <c r="AR73">
-        <v>1.1</v>
+        <v>18.5</v>
       </c>
       <c r="AS73">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT73">
-        <v>1.1</v>
+        <v>23</v>
       </c>
       <c r="AU73">
         <v>1000</v>
       </c>
       <c r="AV73">
-        <v>1.1</v>
+        <v>2.58</v>
       </c>
       <c r="AW73">
         <v>1000</v>
       </c>
       <c r="AX73">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="AY73">
         <v>1000</v>
@@ -15700,7 +15565,7 @@
         <v>1.55</v>
       </c>
       <c r="BA73">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB73">
         <v>1.55</v>
@@ -15709,7 +15574,7 @@
         <v>1000</v>
       </c>
       <c r="BD73">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="BE73">
         <v>1000</v>
@@ -15756,157 +15621,157 @@
         <v>267</v>
       </c>
       <c r="F74">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="G74">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="H74">
+        <v>5.3</v>
+      </c>
+      <c r="I74">
+        <v>6.4</v>
+      </c>
+      <c r="J74">
+        <v>3.45</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>1.65</v>
+      </c>
+      <c r="M74">
+        <v>1.76</v>
+      </c>
+      <c r="N74">
+        <v>2.28</v>
+      </c>
+      <c r="O74">
+        <v>2.54</v>
+      </c>
+      <c r="P74">
+        <v>2.08</v>
+      </c>
+      <c r="Q74">
+        <v>2.44</v>
+      </c>
+      <c r="R74">
+        <v>1.7</v>
+      </c>
+      <c r="S74">
+        <v>1.93</v>
+      </c>
+      <c r="T74">
+        <v>7.8</v>
+      </c>
+      <c r="U74">
+        <v>12.5</v>
+      </c>
+      <c r="V74">
+        <v>3.75</v>
+      </c>
+      <c r="W74">
+        <v>980</v>
+      </c>
+      <c r="X74">
+        <v>4.3</v>
+      </c>
+      <c r="Y74">
+        <v>980</v>
+      </c>
+      <c r="Z74">
+        <v>4.6</v>
+      </c>
+      <c r="AA74">
+        <v>1000</v>
+      </c>
+      <c r="AB74">
+        <v>5.7</v>
+      </c>
+      <c r="AC74">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD74">
+        <v>6.8</v>
+      </c>
+      <c r="AE74">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF74">
+        <v>4</v>
+      </c>
+      <c r="AG74">
+        <v>980</v>
+      </c>
+      <c r="AH74">
+        <v>4.5</v>
+      </c>
+      <c r="AI74">
+        <v>980</v>
+      </c>
+      <c r="AJ74">
+        <v>3.85</v>
+      </c>
+      <c r="AK74">
+        <v>11.5</v>
+      </c>
+      <c r="AL74">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM74">
+        <v>13</v>
+      </c>
+      <c r="AN74">
+        <v>4.1</v>
+      </c>
+      <c r="AO74">
+        <v>980</v>
+      </c>
+      <c r="AP74">
+        <v>4.6</v>
+      </c>
+      <c r="AQ74">
+        <v>980</v>
+      </c>
+      <c r="AR74">
         <v>3.9</v>
       </c>
-      <c r="I74">
-        <v>860</v>
-      </c>
-      <c r="J74">
-        <v>3.05</v>
-      </c>
-      <c r="K74">
-        <v>6.6</v>
-      </c>
-      <c r="L74">
-        <v>1.27</v>
-      </c>
-      <c r="M74">
-        <v>15.5</v>
-      </c>
-      <c r="N74">
-        <v>1.1</v>
-      </c>
-      <c r="O74">
+      <c r="AS74">
+        <v>980</v>
+      </c>
+      <c r="AT74">
+        <v>4</v>
+      </c>
+      <c r="AU74">
+        <v>980</v>
+      </c>
+      <c r="AV74">
+        <v>4.7</v>
+      </c>
+      <c r="AW74">
+        <v>980</v>
+      </c>
+      <c r="AX74">
+        <v>16.5</v>
+      </c>
+      <c r="AY74">
+        <v>980</v>
+      </c>
+      <c r="AZ74">
+        <v>3.8</v>
+      </c>
+      <c r="BA74">
+        <v>980</v>
+      </c>
+      <c r="BB74">
         <v>4.6</v>
       </c>
-      <c r="P74">
-        <v>1.11</v>
-      </c>
-      <c r="Q74">
-        <v>10.5</v>
-      </c>
-      <c r="R74">
-        <v>1.11</v>
-      </c>
-      <c r="S74">
-        <v>10.5</v>
-      </c>
-      <c r="T74">
-        <v>1.49</v>
-      </c>
-      <c r="U74">
-        <v>1000</v>
-      </c>
-      <c r="V74">
-        <v>1.01</v>
-      </c>
-      <c r="W74">
-        <v>1000</v>
-      </c>
-      <c r="X74">
-        <v>1.01</v>
-      </c>
-      <c r="Y74">
-        <v>1000</v>
-      </c>
-      <c r="Z74">
-        <v>1.01</v>
-      </c>
-      <c r="AA74">
-        <v>1000</v>
-      </c>
-      <c r="AB74">
-        <v>1.01</v>
-      </c>
-      <c r="AC74">
-        <v>1000</v>
-      </c>
-      <c r="AD74">
-        <v>1.01</v>
-      </c>
-      <c r="AE74">
-        <v>1000</v>
-      </c>
-      <c r="AF74">
-        <v>1.01</v>
-      </c>
-      <c r="AG74">
-        <v>1000</v>
-      </c>
-      <c r="AH74">
-        <v>1.01</v>
-      </c>
-      <c r="AI74">
-        <v>1000</v>
-      </c>
-      <c r="AJ74">
-        <v>1.01</v>
-      </c>
-      <c r="AK74">
-        <v>1000</v>
-      </c>
-      <c r="AL74">
-        <v>3.15</v>
-      </c>
-      <c r="AM74">
-        <v>1000</v>
-      </c>
-      <c r="AN74">
-        <v>1.01</v>
-      </c>
-      <c r="AO74">
-        <v>1000</v>
-      </c>
-      <c r="AP74">
-        <v>1.01</v>
-      </c>
-      <c r="AQ74">
-        <v>1000</v>
-      </c>
-      <c r="AR74">
-        <v>1.01</v>
-      </c>
-      <c r="AS74">
-        <v>1000</v>
-      </c>
-      <c r="AT74">
-        <v>1.01</v>
-      </c>
-      <c r="AU74">
-        <v>1000</v>
-      </c>
-      <c r="AV74">
-        <v>1.01</v>
-      </c>
-      <c r="AW74">
-        <v>1000</v>
-      </c>
-      <c r="AX74">
-        <v>1.01</v>
-      </c>
-      <c r="AY74">
-        <v>1000</v>
-      </c>
-      <c r="AZ74">
-        <v>1.55</v>
-      </c>
-      <c r="BA74">
-        <v>1000</v>
-      </c>
-      <c r="BB74">
-        <v>1.55</v>
-      </c>
       <c r="BC74">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD74">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BE74">
         <v>1000</v>
@@ -15953,28 +15818,28 @@
         <v>268</v>
       </c>
       <c r="F75">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="G75">
         <v>2.4</v>
       </c>
       <c r="H75">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>6.8</v>
       </c>
       <c r="J75">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K75">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L75">
         <v>1.27</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="N75">
         <v>1.1</v>
@@ -15986,16 +15851,16 @@
         <v>1.1</v>
       </c>
       <c r="Q75">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>980</v>
       </c>
       <c r="T75">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="U75">
         <v>980</v>
@@ -16049,7 +15914,7 @@
         <v>1000</v>
       </c>
       <c r="AL75">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="AM75">
         <v>980</v>
@@ -16150,157 +16015,157 @@
         <v>269</v>
       </c>
       <c r="F76">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="G76">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="H76">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I76">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="J76">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M76">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O76">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="P76">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q76">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="R76">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S76">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T76">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="U76">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="V76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W76">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X76">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y76">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z76">
-        <v>1.67</v>
+        <v>6.2</v>
       </c>
       <c r="AA76">
         <v>980</v>
       </c>
       <c r="AB76">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="AC76">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD76">
+        <v>6.4</v>
+      </c>
+      <c r="AE76">
+        <v>7.4</v>
+      </c>
+      <c r="AF76">
+        <v>5.5</v>
+      </c>
+      <c r="AG76">
+        <v>21</v>
+      </c>
+      <c r="AH76">
         <v>6</v>
       </c>
-      <c r="AE76">
-        <v>980</v>
-      </c>
-      <c r="AF76">
-        <v>4.1</v>
-      </c>
-      <c r="AG76">
-        <v>980</v>
-      </c>
-      <c r="AH76">
-        <v>1.9</v>
-      </c>
       <c r="AI76">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ76">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK76">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL76">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM76">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN76">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="AO76">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="AQ76">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR76">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AS76">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AT76">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="AU76">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AV76">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AW76">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX76">
-        <v>1.31</v>
+        <v>6.4</v>
       </c>
       <c r="AY76">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ76">
-        <v>1.57</v>
+        <v>5.6</v>
       </c>
       <c r="BA76">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="BB76">
-        <v>1.55</v>
+        <v>6.2</v>
       </c>
       <c r="BC76">
         <v>980</v>
       </c>
       <c r="BD76">
-        <v>1.69</v>
+        <v>6.6</v>
       </c>
       <c r="BE76">
         <v>1000</v>
@@ -16347,157 +16212,157 @@
         <v>270</v>
       </c>
       <c r="F77">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="G77">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="H77">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="I77">
-        <v>870</v>
+        <v>3.15</v>
       </c>
       <c r="J77">
         <v>2.92</v>
       </c>
       <c r="K77">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="L77">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="O77">
-        <v>4.6</v>
+        <v>2.86</v>
       </c>
       <c r="P77">
-        <v>1.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q77">
-        <v>10.5</v>
+        <v>2.28</v>
       </c>
       <c r="R77">
-        <v>1.14</v>
+        <v>1.79</v>
       </c>
       <c r="S77">
-        <v>9.199999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="T77">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="U77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V77">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="W77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X77">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="Y77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z77">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="AA77">
         <v>1000</v>
       </c>
       <c r="AB77">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AC77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD77">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AE77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF77">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AG77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH77">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="AI77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ77">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="AK77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL77">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AM77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN77">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="AO77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP77">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="AQ77">
         <v>1000</v>
       </c>
       <c r="AR77">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="AS77">
         <v>1000</v>
       </c>
       <c r="AT77">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="AU77">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV77">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="AW77">
         <v>1000</v>
       </c>
       <c r="AX77">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="AY77">
         <v>1000</v>
       </c>
       <c r="AZ77">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="BA77">
         <v>1000</v>
       </c>
       <c r="BB77">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="BC77">
         <v>1000</v>
       </c>
       <c r="BD77">
-        <v>15</v>
+        <v>1.87</v>
       </c>
       <c r="BE77">
         <v>1000</v>
@@ -16544,139 +16409,139 @@
         <v>271</v>
       </c>
       <c r="F78">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="G78">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="H78">
-        <v>3.25</v>
+        <v>5.4</v>
       </c>
       <c r="I78">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J78">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K78">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="L78">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="O78">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="P78">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="Q78">
-        <v>990</v>
+        <v>2.8</v>
       </c>
       <c r="R78">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="S78">
-        <v>990</v>
+        <v>1.76</v>
       </c>
       <c r="T78">
+        <v>6.6</v>
+      </c>
+      <c r="U78">
+        <v>980</v>
+      </c>
+      <c r="V78">
         <v>1.49</v>
       </c>
-      <c r="U78">
-        <v>1000</v>
-      </c>
-      <c r="V78">
-        <v>1.01</v>
-      </c>
       <c r="W78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X78">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="Y78">
         <v>1000</v>
       </c>
       <c r="Z78">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="AA78">
         <v>1000</v>
       </c>
       <c r="AB78">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AC78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD78">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="AE78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF78">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="AG78">
         <v>1000</v>
       </c>
       <c r="AH78">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="AI78">
         <v>1000</v>
       </c>
       <c r="AJ78">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AK78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL78">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AM78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN78">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="AO78">
         <v>1000</v>
       </c>
       <c r="AP78">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
         <v>1000</v>
       </c>
       <c r="AR78">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="AS78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT78">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="AU78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV78">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="AW78">
         <v>1000</v>
       </c>
       <c r="AX78">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="AY78">
         <v>1000</v>
@@ -16685,7 +16550,7 @@
         <v>1.55</v>
       </c>
       <c r="BA78">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB78">
         <v>1.55</v>
@@ -16694,7 +16559,7 @@
         <v>1000</v>
       </c>
       <c r="BD78">
-        <v>15</v>
+        <v>1.93</v>
       </c>
       <c r="BE78">
         <v>1000</v>
@@ -16741,157 +16606,157 @@
         <v>272</v>
       </c>
       <c r="F79">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="G79">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I79">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J79">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="L79">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M79">
+        <v>1.79</v>
+      </c>
+      <c r="N79">
+        <v>2.26</v>
+      </c>
+      <c r="O79">
+        <v>2.5</v>
+      </c>
+      <c r="P79">
         <v>2</v>
       </c>
-      <c r="N79">
+      <c r="Q79">
+        <v>2.24</v>
+      </c>
+      <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
         <v>2</v>
       </c>
-      <c r="O79">
-        <v>3.5</v>
-      </c>
-      <c r="P79">
-        <v>1.85</v>
-      </c>
-      <c r="Q79">
-        <v>2.46</v>
-      </c>
-      <c r="R79">
-        <v>1.69</v>
-      </c>
-      <c r="S79">
-        <v>2.18</v>
-      </c>
       <c r="T79">
-        <v>1.25</v>
+        <v>3.85</v>
       </c>
       <c r="U79">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="V79">
-        <v>1.13</v>
+        <v>4.2</v>
       </c>
       <c r="W79">
         <v>980</v>
       </c>
       <c r="X79">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z79">
-        <v>1.09</v>
+        <v>5.3</v>
       </c>
       <c r="AA79">
         <v>1000</v>
       </c>
       <c r="AB79">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="AC79">
         <v>980</v>
       </c>
       <c r="AD79">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="AE79">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AF79">
-        <v>1.12</v>
+        <v>4.5</v>
       </c>
       <c r="AG79">
         <v>980</v>
       </c>
       <c r="AH79">
-        <v>1.09</v>
+        <v>5.2</v>
       </c>
       <c r="AI79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ79">
-        <v>1.14</v>
+        <v>3.9</v>
       </c>
       <c r="AK79">
         <v>980</v>
       </c>
       <c r="AL79">
-        <v>1.25</v>
+        <v>3.9</v>
       </c>
       <c r="AM79">
         <v>980</v>
       </c>
       <c r="AN79">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AO79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP79">
-        <v>1.09</v>
+        <v>5.3</v>
       </c>
       <c r="AQ79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR79">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="AS79">
         <v>980</v>
       </c>
       <c r="AT79">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AU79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV79">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="AW79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX79">
-        <v>1.09</v>
+        <v>5.4</v>
       </c>
       <c r="AY79">
         <v>1000</v>
       </c>
       <c r="AZ79">
-        <v>1.55</v>
+        <v>4.3</v>
       </c>
       <c r="BA79">
         <v>980</v>
       </c>
       <c r="BB79">
-        <v>1.55</v>
+        <v>5.3</v>
       </c>
       <c r="BC79">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD79">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="BE79">
         <v>1000</v>
@@ -16938,100 +16803,100 @@
         <v>273</v>
       </c>
       <c r="F80">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H80">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I80">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J80">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K80">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L80">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="M80">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N80">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="O80">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="P80">
         <v>1.98</v>
       </c>
       <c r="Q80">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R80">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S80">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T80">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="U80">
         <v>11</v>
       </c>
       <c r="V80">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="W80">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X80">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y80">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z80">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA80">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB80">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC80">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD80">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE80">
         <v>7.8</v>
       </c>
       <c r="AF80">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG80">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH80">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AI80">
         <v>65</v>
       </c>
       <c r="AJ80">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL80">
         <v>10</v>
@@ -17040,55 +16905,55 @@
         <v>11</v>
       </c>
       <c r="AN80">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP80">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AQ80">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AR80">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS80">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU80">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AV80">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AW80">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AX80">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AY80">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AZ80">
+        <v>16</v>
+      </c>
+      <c r="BA80">
+        <v>17.5</v>
+      </c>
+      <c r="BB80">
         <v>14.5</v>
       </c>
-      <c r="BA80">
-        <v>21</v>
-      </c>
-      <c r="BB80">
-        <v>11</v>
-      </c>
       <c r="BC80">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BD80">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="BE80">
         <v>1000</v>
@@ -17135,46 +17000,46 @@
         <v>274</v>
       </c>
       <c r="F81">
+        <v>2.8</v>
+      </c>
+      <c r="G81">
+        <v>2.94</v>
+      </c>
+      <c r="H81">
+        <v>2.94</v>
+      </c>
+      <c r="I81">
+        <v>3.1</v>
+      </c>
+      <c r="J81">
+        <v>3.05</v>
+      </c>
+      <c r="K81">
+        <v>3.2</v>
+      </c>
+      <c r="L81">
+        <v>1.63</v>
+      </c>
+      <c r="M81">
+        <v>1.68</v>
+      </c>
+      <c r="N81">
+        <v>2.48</v>
+      </c>
+      <c r="O81">
         <v>2.58</v>
       </c>
-      <c r="G81">
-        <v>2.92</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81">
-        <v>3.35</v>
-      </c>
-      <c r="J81">
-        <v>2.98</v>
-      </c>
-      <c r="K81">
-        <v>3.35</v>
-      </c>
-      <c r="L81">
-        <v>1.59</v>
-      </c>
-      <c r="M81">
-        <v>1.75</v>
-      </c>
-      <c r="N81">
-        <v>2.34</v>
-      </c>
-      <c r="O81">
-        <v>2.68</v>
-      </c>
       <c r="P81">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q81">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R81">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T81">
         <v>8</v>
@@ -17183,109 +17048,109 @@
         <v>11.5</v>
       </c>
       <c r="V81">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="W81">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X81">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="Y81">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z81">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AA81">
         <v>980</v>
       </c>
       <c r="AB81">
-        <v>3.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC81">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD81">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE81">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF81">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="AG81">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH81">
-        <v>4.6</v>
+        <v>28</v>
       </c>
       <c r="AI81">
         <v>980</v>
       </c>
       <c r="AJ81">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="AK81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL81">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="AM81">
         <v>16</v>
       </c>
       <c r="AN81">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="AO81">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AP81">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="AQ81">
         <v>980</v>
       </c>
       <c r="AR81">
-        <v>4.6</v>
+        <v>30</v>
       </c>
       <c r="AS81">
         <v>980</v>
       </c>
       <c r="AT81">
-        <v>4.5</v>
+        <v>26</v>
       </c>
       <c r="AU81">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AV81">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="AW81">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AX81">
+        <v>5.4</v>
+      </c>
+      <c r="AY81">
+        <v>980</v>
+      </c>
+      <c r="AZ81">
         <v>4.9</v>
       </c>
-      <c r="AY81">
-        <v>980</v>
-      </c>
-      <c r="AZ81">
-        <v>4.5</v>
-      </c>
       <c r="BA81">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="BB81">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BC81">
         <v>980</v>
       </c>
       <c r="BD81">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BE81">
         <v>1000</v>
@@ -17332,13 +17197,13 @@
         <v>275</v>
       </c>
       <c r="F82">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="G82">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H82">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I82">
         <v>6.4</v>
@@ -17347,142 +17212,142 @@
         <v>3.65</v>
       </c>
       <c r="K82">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="N82">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O82">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="P82">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q82">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R82">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T82">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="U82">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="V82">
+        <v>15.5</v>
+      </c>
+      <c r="W82">
+        <v>980</v>
+      </c>
+      <c r="X82">
+        <v>7.6</v>
+      </c>
+      <c r="Y82">
+        <v>980</v>
+      </c>
+      <c r="Z82">
+        <v>8.6</v>
+      </c>
+      <c r="AA82">
+        <v>980</v>
+      </c>
+      <c r="AB82">
         <v>6.6</v>
       </c>
-      <c r="W82">
-        <v>19</v>
-      </c>
-      <c r="X82">
-        <v>8.6</v>
-      </c>
-      <c r="Y82">
-        <v>980</v>
-      </c>
-      <c r="Z82">
-        <v>2.3</v>
-      </c>
-      <c r="AA82">
-        <v>980</v>
-      </c>
-      <c r="AB82">
-        <v>6.4</v>
-      </c>
       <c r="AC82">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD82">
         <v>7.8</v>
       </c>
       <c r="AE82">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AF82">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="AG82">
         <v>980</v>
       </c>
       <c r="AH82">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI82">
         <v>980</v>
       </c>
       <c r="AJ82">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AK82">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL82">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM82">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AN82">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="AO82">
         <v>980</v>
       </c>
       <c r="AP82">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AQ82">
         <v>980</v>
       </c>
       <c r="AR82">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AS82">
         <v>18.5</v>
       </c>
       <c r="AT82">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AU82">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AV82">
+        <v>7.6</v>
+      </c>
+      <c r="AW82">
+        <v>980</v>
+      </c>
+      <c r="AX82">
         <v>8.6</v>
       </c>
-      <c r="AW82">
-        <v>980</v>
-      </c>
-      <c r="AX82">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AY82">
         <v>980</v>
       </c>
       <c r="AZ82">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="BA82">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BB82">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="BC82">
         <v>980</v>
       </c>
       <c r="BD82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BE82">
         <v>1000</v>
@@ -17529,94 +17394,94 @@
         <v>276</v>
       </c>
       <c r="F83">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="G83">
+        <v>2.92</v>
+      </c>
+      <c r="H83">
+        <v>2.94</v>
+      </c>
+      <c r="I83">
         <v>3.4</v>
       </c>
-      <c r="H83">
-        <v>2.52</v>
-      </c>
-      <c r="I83">
-        <v>3.15</v>
-      </c>
       <c r="J83">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K83">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="M83">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="N83">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="O83">
         <v>3.75</v>
       </c>
       <c r="P83">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q83">
-        <v>990</v>
+        <v>2.16</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S83">
-        <v>110</v>
+        <v>2.08</v>
       </c>
       <c r="T83">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="V83">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="W83">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X83">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y83">
         <v>980</v>
       </c>
       <c r="Z83">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="AA83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB83">
-        <v>1.17</v>
+        <v>3.7</v>
       </c>
       <c r="AC83">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD83">
-        <v>5.6</v>
+        <v>3.05</v>
       </c>
       <c r="AE83">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AF83">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="AG83">
         <v>980</v>
       </c>
       <c r="AH83">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="AI83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ83">
         <v>3.9</v>
@@ -17625,61 +17490,61 @@
         <v>980</v>
       </c>
       <c r="AL83">
-        <v>3.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM83">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AN83">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO83">
         <v>980</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>4.7</v>
       </c>
       <c r="AQ83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR83">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="AS83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT83">
-        <v>1.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV83">
-        <v>1.17</v>
+        <v>4.6</v>
       </c>
       <c r="AW83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX83">
-        <v>1.17</v>
+        <v>4.8</v>
       </c>
       <c r="AY83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ83">
-        <v>1.55</v>
+        <v>4.4</v>
       </c>
       <c r="BA83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB83">
-        <v>1.55</v>
+        <v>4.6</v>
       </c>
       <c r="BC83">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD83">
-        <v>1.17</v>
+        <v>4.9</v>
       </c>
       <c r="BE83">
         <v>1000</v>
@@ -17738,7 +17603,7 @@
         <v>990</v>
       </c>
       <c r="J84">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="K84">
         <v>980</v>
@@ -17747,7 +17612,7 @@
         <v>1.27</v>
       </c>
       <c r="M84">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N84">
         <v>1.1</v>
@@ -17923,67 +17788,67 @@
         <v>278</v>
       </c>
       <c r="F85">
+        <v>1.66</v>
+      </c>
+      <c r="G85">
         <v>1.67</v>
       </c>
-      <c r="G85">
-        <v>1.8</v>
-      </c>
       <c r="H85">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I85">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J85">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K85">
         <v>4.4</v>
       </c>
       <c r="L85">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M85">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="N85">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="O85">
+        <v>2.02</v>
+      </c>
+      <c r="P85">
+        <v>1.92</v>
+      </c>
+      <c r="Q85">
+        <v>2.1</v>
+      </c>
+      <c r="R85">
+        <v>1.92</v>
+      </c>
+      <c r="S85">
         <v>2.08</v>
       </c>
-      <c r="P85">
-        <v>1.76</v>
-      </c>
-      <c r="Q85">
-        <v>2.04</v>
-      </c>
-      <c r="R85">
-        <v>1.96</v>
-      </c>
-      <c r="S85">
-        <v>2.32</v>
-      </c>
       <c r="T85">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="U85">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="V85">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="W85">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="X85">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="Y85">
         <v>980</v>
       </c>
       <c r="Z85">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA85">
         <v>980</v>
@@ -17992,88 +17857,88 @@
         <v>6.4</v>
       </c>
       <c r="AC85">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD85">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE85">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF85">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG85">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AH85">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI85">
         <v>980</v>
       </c>
       <c r="AJ85">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AK85">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AL85">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM85">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN85">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO85">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AP85">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ85">
         <v>980</v>
       </c>
       <c r="AR85">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS85">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AT85">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AU85">
         <v>22</v>
       </c>
       <c r="AV85">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AW85">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AX85">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY85">
         <v>980</v>
       </c>
       <c r="AZ85">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="BA85">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="BB85">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BC85">
         <v>980</v>
       </c>
       <c r="BD85">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BE85">
         <v>1000</v>
@@ -18120,148 +17985,148 @@
         <v>279</v>
       </c>
       <c r="F86">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="G86">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H86">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I86">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J86">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K86">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L86">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="M86">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="O86">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="P86">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q86">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="R86">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S86">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T86">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U86">
         <v>11.5</v>
       </c>
       <c r="V86">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="W86">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="X86">
         <v>5.6</v>
       </c>
       <c r="Y86">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z86">
+        <v>6</v>
+      </c>
+      <c r="AA86">
+        <v>980</v>
+      </c>
+      <c r="AB86">
+        <v>5.1</v>
+      </c>
+      <c r="AC86">
+        <v>6.2</v>
+      </c>
+      <c r="AD86">
+        <v>7.6</v>
+      </c>
+      <c r="AE86">
+        <v>9.6</v>
+      </c>
+      <c r="AF86">
+        <v>23</v>
+      </c>
+      <c r="AG86">
+        <v>34</v>
+      </c>
+      <c r="AH86">
         <v>5.9</v>
       </c>
-      <c r="AA86">
-        <v>980</v>
-      </c>
-      <c r="AB86">
-        <v>5.2</v>
-      </c>
-      <c r="AC86">
-        <v>6.6</v>
-      </c>
-      <c r="AD86">
-        <v>7.8</v>
-      </c>
-      <c r="AE86">
-        <v>10.5</v>
-      </c>
-      <c r="AF86">
-        <v>5.3</v>
-      </c>
-      <c r="AG86">
-        <v>980</v>
-      </c>
-      <c r="AH86">
-        <v>5.8</v>
-      </c>
       <c r="AI86">
         <v>980</v>
       </c>
       <c r="AJ86">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK86">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AL86">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM86">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN86">
-        <v>5.2</v>
+        <v>24</v>
       </c>
       <c r="AO86">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AP86">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AQ86">
         <v>980</v>
       </c>
       <c r="AR86">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AS86">
+        <v>20</v>
+      </c>
+      <c r="AT86">
+        <v>18.5</v>
+      </c>
+      <c r="AU86">
+        <v>28</v>
+      </c>
+      <c r="AV86">
+        <v>5.7</v>
+      </c>
+      <c r="AW86">
+        <v>75</v>
+      </c>
+      <c r="AX86">
+        <v>6.2</v>
+      </c>
+      <c r="AY86">
+        <v>980</v>
+      </c>
+      <c r="AZ86">
+        <v>4.5</v>
+      </c>
+      <c r="BA86">
         <v>17</v>
-      </c>
-      <c r="AT86">
-        <v>17</v>
-      </c>
-      <c r="AU86">
-        <v>25</v>
-      </c>
-      <c r="AV86">
-        <v>5.5</v>
-      </c>
-      <c r="AW86">
-        <v>980</v>
-      </c>
-      <c r="AX86">
-        <v>5.9</v>
-      </c>
-      <c r="AY86">
-        <v>980</v>
-      </c>
-      <c r="AZ86">
-        <v>4.1</v>
-      </c>
-      <c r="BA86">
-        <v>13.5</v>
       </c>
       <c r="BB86">
         <v>20</v>
@@ -18270,7 +18135,7 @@
         <v>980</v>
       </c>
       <c r="BD86">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BE86">
         <v>1000</v>
@@ -18317,157 +18182,157 @@
         <v>280</v>
       </c>
       <c r="F87">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="G87">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H87">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="I87">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="J87">
+        <v>2.82</v>
+      </c>
+      <c r="K87">
+        <v>3.2</v>
+      </c>
+      <c r="L87">
+        <v>1.49</v>
+      </c>
+      <c r="M87">
+        <v>1.66</v>
+      </c>
+      <c r="N87">
+        <v>2.52</v>
+      </c>
+      <c r="O87">
         <v>3.05</v>
       </c>
-      <c r="K87">
-        <v>4.2</v>
-      </c>
-      <c r="L87">
-        <v>1.52</v>
-      </c>
-      <c r="M87">
-        <v>1.72</v>
-      </c>
-      <c r="N87">
-        <v>2</v>
-      </c>
-      <c r="O87">
-        <v>4.6</v>
-      </c>
       <c r="P87">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q87">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="R87">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S87">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="T87">
-        <v>1.36</v>
+        <v>6.8</v>
       </c>
       <c r="U87">
         <v>980</v>
       </c>
       <c r="V87">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="W87">
         <v>980</v>
       </c>
       <c r="X87">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="Y87">
         <v>980</v>
       </c>
       <c r="Z87">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB87">
-        <v>2.64</v>
+        <v>4.8</v>
       </c>
       <c r="AC87">
         <v>980</v>
       </c>
       <c r="AD87">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="AE87">
         <v>980</v>
       </c>
       <c r="AF87">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AG87">
         <v>980</v>
       </c>
       <c r="AH87">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ87">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="AK87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL87">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AM87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN87">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR87">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="AS87">
         <v>1000</v>
       </c>
       <c r="AT87">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AU87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV87">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AW87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX87">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AY87">
         <v>1000</v>
       </c>
       <c r="AZ87">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BA87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB87">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BC87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD87">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="BE87">
         <v>1000</v>
@@ -18514,52 +18379,52 @@
         <v>281</v>
       </c>
       <c r="F88">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G88">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H88">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I88">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J88">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K88">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L88">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M88">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N88">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="O88">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="P88">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R88">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S88">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T88">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="U88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V88">
         <v>7.6</v>
@@ -18568,7 +18433,7 @@
         <v>10.5</v>
       </c>
       <c r="X88">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y88">
         <v>22</v>
@@ -18577,91 +18442,91 @@
         <v>6.2</v>
       </c>
       <c r="AA88">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB88">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC88">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD88">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE88">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF88">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG88">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH88">
         <v>6</v>
       </c>
       <c r="AI88">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ88">
         <v>12.5</v>
       </c>
       <c r="AK88">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL88">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM88">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN88">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO88">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP88">
         <v>6.4</v>
       </c>
       <c r="AQ88">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AR88">
         <v>6</v>
       </c>
       <c r="AS88">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT88">
         <v>5.9</v>
       </c>
       <c r="AU88">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AV88">
         <v>6.2</v>
       </c>
       <c r="AW88">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AX88">
         <v>6.6</v>
       </c>
       <c r="AY88">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AZ88">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BA88">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="BB88">
         <v>6.2</v>
       </c>
       <c r="BC88">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="BD88">
         <v>6.8</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-24.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-24.xlsx
@@ -17591,7 +17591,7 @@
         <v>277</v>
       </c>
       <c r="F84">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="G84">
         <v>990</v>
@@ -17603,7 +17603,7 @@
         <v>990</v>
       </c>
       <c r="J84">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K84">
         <v>980</v>
@@ -17788,7 +17788,7 @@
         <v>278</v>
       </c>
       <c r="F85">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G85">
         <v>1.67</v>
@@ -17797,148 +17797,148 @@
         <v>6</v>
       </c>
       <c r="I85">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J85">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K85">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L85">
+        <v>1.96</v>
+      </c>
+      <c r="M85">
+        <v>2.02</v>
+      </c>
+      <c r="N85">
         <v>1.98</v>
       </c>
-      <c r="M85">
-        <v>2.06</v>
-      </c>
-      <c r="N85">
-        <v>1.96</v>
-      </c>
       <c r="O85">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="P85">
         <v>1.92</v>
       </c>
       <c r="Q85">
+        <v>2.06</v>
+      </c>
+      <c r="R85">
+        <v>1.96</v>
+      </c>
+      <c r="S85">
         <v>2.1</v>
-      </c>
-      <c r="R85">
-        <v>1.92</v>
-      </c>
-      <c r="S85">
-        <v>2.08</v>
       </c>
       <c r="T85">
         <v>12.5</v>
       </c>
       <c r="U85">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V85">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W85">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X85">
-        <v>6.2</v>
+        <v>40</v>
       </c>
       <c r="Y85">
         <v>980</v>
       </c>
       <c r="Z85">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="AA85">
         <v>980</v>
       </c>
       <c r="AB85">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC85">
         <v>8.6</v>
       </c>
       <c r="AD85">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AE85">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF85">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG85">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH85">
-        <v>6.2</v>
+        <v>48</v>
       </c>
       <c r="AI85">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ85">
         <v>8.6</v>
       </c>
       <c r="AK85">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL85">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM85">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN85">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AO85">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP85">
-        <v>6.2</v>
+        <v>55</v>
       </c>
       <c r="AQ85">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AR85">
         <v>14.5</v>
       </c>
       <c r="AS85">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AT85">
         <v>15.5</v>
       </c>
       <c r="AU85">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV85">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AW85">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AX85">
-        <v>6.4</v>
+        <v>15.5</v>
       </c>
       <c r="AY85">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AZ85">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="BA85">
         <v>10.5</v>
       </c>
       <c r="BB85">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="BC85">
         <v>980</v>
       </c>
       <c r="BD85">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="BE85">
         <v>1000</v>
@@ -17985,13 +17985,13 @@
         <v>279</v>
       </c>
       <c r="F86">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G86">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H86">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I86">
         <v>7</v>
@@ -18000,10 +18000,10 @@
         <v>3.65</v>
       </c>
       <c r="K86">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L86">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M86">
         <v>1.63</v>
@@ -18012,10 +18012,10 @@
         <v>2.58</v>
       </c>
       <c r="O86">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="P86">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q86">
         <v>2.6</v>
@@ -18024,28 +18024,28 @@
         <v>1.62</v>
       </c>
       <c r="S86">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U86">
         <v>11.5</v>
       </c>
       <c r="V86">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W86">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X86">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y86">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z86">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA86">
         <v>980</v>
@@ -18063,13 +18063,13 @@
         <v>9.6</v>
       </c>
       <c r="AF86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG86">
         <v>34</v>
       </c>
       <c r="AH86">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI86">
         <v>980</v>
@@ -18084,16 +18084,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AM86">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN86">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO86">
         <v>38</v>
       </c>
       <c r="AP86">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ86">
         <v>980</v>
@@ -18111,19 +18111,19 @@
         <v>28</v>
       </c>
       <c r="AV86">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AW86">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AX86">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="AY86">
         <v>980</v>
       </c>
       <c r="AZ86">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BA86">
         <v>17</v>
@@ -18135,7 +18135,7 @@
         <v>980</v>
       </c>
       <c r="BD86">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE86">
         <v>1000</v>
@@ -18182,31 +18182,31 @@
         <v>280</v>
       </c>
       <c r="F87">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G87">
         <v>4.3</v>
       </c>
       <c r="H87">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I87">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J87">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K87">
         <v>3.2</v>
       </c>
       <c r="L87">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M87">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="N87">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O87">
         <v>3.05</v>
@@ -18215,10 +18215,10 @@
         <v>2.06</v>
       </c>
       <c r="Q87">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R87">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S87">
         <v>1.94</v>
@@ -18230,19 +18230,19 @@
         <v>980</v>
       </c>
       <c r="V87">
+        <v>6.6</v>
+      </c>
+      <c r="W87">
+        <v>980</v>
+      </c>
+      <c r="X87">
+        <v>5.1</v>
+      </c>
+      <c r="Y87">
+        <v>980</v>
+      </c>
+      <c r="Z87">
         <v>6.4</v>
-      </c>
-      <c r="W87">
-        <v>980</v>
-      </c>
-      <c r="X87">
-        <v>5</v>
-      </c>
-      <c r="Y87">
-        <v>980</v>
-      </c>
-      <c r="Z87">
-        <v>6.2</v>
       </c>
       <c r="AA87">
         <v>980</v>
@@ -18260,25 +18260,25 @@
         <v>980</v>
       </c>
       <c r="AF87">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AG87">
         <v>980</v>
       </c>
       <c r="AH87">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI87">
         <v>980</v>
       </c>
       <c r="AJ87">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AK87">
         <v>980</v>
       </c>
       <c r="AL87">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AM87">
         <v>980</v>
@@ -18290,49 +18290,49 @@
         <v>980</v>
       </c>
       <c r="AP87">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AQ87">
         <v>980</v>
       </c>
       <c r="AR87">
-        <v>3.85</v>
+        <v>2.58</v>
       </c>
       <c r="AS87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT87">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU87">
         <v>980</v>
       </c>
       <c r="AV87">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW87">
         <v>980</v>
       </c>
       <c r="AX87">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AY87">
         <v>1000</v>
       </c>
       <c r="AZ87">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="BA87">
         <v>980</v>
       </c>
       <c r="BB87">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BC87">
         <v>980</v>
       </c>
       <c r="BD87">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BE87">
         <v>1000</v>
@@ -18379,25 +18379,25 @@
         <v>281</v>
       </c>
       <c r="F88">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G88">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H88">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I88">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J88">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L88">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M88">
         <v>1.62</v>
@@ -18406,19 +18406,19 @@
         <v>2.6</v>
       </c>
       <c r="O88">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="P88">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q88">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R88">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S88">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>6.8</v>
@@ -18433,103 +18433,103 @@
         <v>10.5</v>
       </c>
       <c r="X88">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y88">
         <v>22</v>
       </c>
       <c r="Z88">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA88">
         <v>980</v>
       </c>
       <c r="AB88">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC88">
         <v>8.800000000000001</v>
       </c>
       <c r="AD88">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE88">
         <v>7.6</v>
       </c>
       <c r="AF88">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG88">
         <v>17</v>
       </c>
       <c r="AH88">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AI88">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ88">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK88">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL88">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM88">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO88">
         <v>27</v>
       </c>
       <c r="AP88">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ88">
         <v>980</v>
       </c>
       <c r="AR88">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AS88">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AT88">
-        <v>5.9</v>
+        <v>28</v>
       </c>
       <c r="AU88">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV88">
+        <v>6.6</v>
+      </c>
+      <c r="AW88">
+        <v>980</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>980</v>
+      </c>
+      <c r="AZ88">
         <v>6.2</v>
       </c>
-      <c r="AW88">
-        <v>980</v>
-      </c>
-      <c r="AX88">
+      <c r="BA88">
+        <v>46</v>
+      </c>
+      <c r="BB88">
         <v>6.6</v>
       </c>
-      <c r="AY88">
-        <v>980</v>
-      </c>
-      <c r="AZ88">
-        <v>6</v>
-      </c>
-      <c r="BA88">
-        <v>980</v>
-      </c>
-      <c r="BB88">
-        <v>6.2</v>
-      </c>
       <c r="BC88">
         <v>980</v>
       </c>
       <c r="BD88">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="BE88">
         <v>1000</v>
